--- a/abilities/abilities.xlsx
+++ b/abilities/abilities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="517">
   <si>
     <t>{</t>
   </si>
@@ -374,9 +374,6 @@
   </si>
   <si>
     <t>Increase CRIT chance for all Beast allies.</t>
-  </si>
-  <si>
-    <t>Grill Master II</t>
   </si>
   <si>
     <t>Chance to Burn on any CRIT.</t>
@@ -1731,9 +1728,6 @@
     <t>Melee Physical attack dealing [60% ATK] base damage and exhausting 3 energy from a single target.</t>
   </si>
   <si>
-    <t>Septic Claw I/II</t>
-  </si>
-  <si>
     <t>Melee Disease attack for [67% ATK] base damage, with x% chance of inflicting Disease on the target. Septic Claw II gives a 30% chance that it could spread to the entire party upon hitting the target.</t>
   </si>
   <si>
@@ -1755,34 +1749,7 @@
     <t>Increases health of Undead allies by 15% (20%) (25%).</t>
   </si>
   <si>
-    <t>Lethargy I</t>
-  </si>
-  <si>
-    <t>Undead Heart I</t>
-  </si>
-  <si>
     <t>Frenzy I</t>
-  </si>
-  <si>
-    <t>Thunder Shout I</t>
-  </si>
-  <si>
-    <t>Tribal Heart I</t>
-  </si>
-  <si>
-    <t>Fully Rested I</t>
-  </si>
-  <si>
-    <t>Pack Rampage I</t>
-  </si>
-  <si>
-    <t>Poison Skin I</t>
-  </si>
-  <si>
-    <t>Pack Fury I</t>
-  </si>
-  <si>
-    <t>Beast Leader I</t>
   </si>
   <si>
     <t>Overlord Executum</t>
@@ -1904,9 +1871,6 @@
   </si>
   <si>
     <t>Increase ATK + DEF for all Undead allies.</t>
-  </si>
-  <si>
-    <t>Soul Eater I (II)</t>
   </si>
   <si>
     <t>Heals 10% (20%) of maximum HP when dealing a killing blow.</t>
@@ -2409,15 +2373,9 @@
     <t>Highly skilled attack for 283 base damage that inflicts Nerve Damage debuff: all healing will be blocked for target for 3 turns. (damage scales up with skill level)</t>
   </si>
   <si>
-    <t>Shifty I (II)</t>
-  </si>
-  <si>
     <t>Innate ability to dodge attacks (19/25)%.</t>
   </si>
   <si>
-    <t>PWN Undead I (II)</t>
-  </si>
-  <si>
     <t>2.5x (3x) Boosted damage vs undead enemies.</t>
   </si>
   <si>
@@ -2455,6 +2413,39 @@
   </si>
   <si>
     <t>9 turns</t>
+  </si>
+  <si>
+    <t>Pack Fury</t>
+  </si>
+  <si>
+    <t>Poison Skin</t>
+  </si>
+  <si>
+    <t>Pack Rampage</t>
+  </si>
+  <si>
+    <t>Fully Rested</t>
+  </si>
+  <si>
+    <t>Tribal Heart</t>
+  </si>
+  <si>
+    <t>Thunder Shout</t>
+  </si>
+  <si>
+    <t>Lethargy</t>
+  </si>
+  <si>
+    <t>Undead Heart</t>
+  </si>
+  <si>
+    <t>Soul Eater</t>
+  </si>
+  <si>
+    <t>Septic Claw</t>
+  </si>
+  <si>
+    <t>PWN Undead</t>
   </si>
 </sst>
 </file>
@@ -2553,8 +2544,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="187">
+  <cellStyleXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2752,7 +2747,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="187">
+  <cellStyles count="191">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
@@ -2846,6 +2841,8 @@
     <cellStyle name="Följd hyperlänk" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
@@ -2939,6 +2936,8 @@
     <cellStyle name="Hyperlänk" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3282,7 +3281,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -4572,7 +4571,7 @@
     <row r="216" spans="1:1">
       <c r="A216" t="str">
         <f>fire!M79</f>
-        <v>{'name':'Beast Leader I','type':'Trait','cooldown':'Increased ATK for all Beast allies. Higher tiers increases ATK boost.','description':'Increased ATK for all Beast allies. Higher tiers increases ATK boost.'},</v>
+        <v>{'name':'Beast Leader','type':'Trait','cooldown':'Increased ATK for all Beast allies. Higher tiers increases ATK boost.','description':'Increased ATK for all Beast allies. Higher tiers increases ATK boost.'},</v>
       </c>
     </row>
     <row r="217" spans="1:1">
@@ -4983,16 +4982,16 @@
         <v>{'name':'Frenzy I','type':'Trait','cooldown':'Passive','description':'Increase CRIT chance by 9% (14%) (19%).'},</v>
       </c>
     </row>
-    <row r="285" spans="1:1" hidden="1">
+    <row r="285" spans="1:1">
       <c r="A285" t="str">
         <f>dark!M7</f>
-        <v>{'name':'Frenzy I','type':'Trait','cooldown':'Passive','description':'Increase CRIT chance by 9% (14%) (19%).'},</v>
+        <v>{'name':'Frenzy','type':'Trait','cooldown':'Passive','description':'Increase CRIT chance by 9% (14%) (19%).'},</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="str">
         <f>dark!M26</f>
-        <v>{'name':'Frenzy I','type':'Trait','cooldown':'Passive','description':'Increase CRIT chance by 9% (14%).'},</v>
+        <v>{'name':'Frenzy','type':'Trait','cooldown':'Passive','description':'Increase CRIT chance by 9% (14%).'},</v>
       </c>
     </row>
     <row r="287" spans="1:1">
@@ -5028,7 +5027,7 @@
     <row r="292" spans="1:1">
       <c r="A292" t="str">
         <f>nature!M42</f>
-        <v>{'name':'Fully Rested I','type':'Trait','cooldown':'Passive','description':'Damage dealt to enemies is increased by 25% (33%) when Julius' health is full.'},</v>
+        <v>{'name':'Fully Rested','type':'Trait','cooldown':'Passive','description':'Damage dealt to enemies is increased by 25% (33%) when Julius' health is full.'},</v>
       </c>
     </row>
     <row r="293" spans="1:1">
@@ -5064,10 +5063,10 @@
     <row r="298" spans="1:1">
       <c r="A298" t="str">
         <f>fire!M34</f>
-        <v>{'name':'Grill Master II','type':'Trait','cooldown':'Passive','description':'Chance to Burn on any CRIT.'},</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
+        <v>{'name':'Grill Master','type':'Trait','cooldown':'Passive','description':'Chance to Burn on any CRIT.'},</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" hidden="1">
       <c r="A299" t="str">
         <f>fire!M43</f>
         <v>{'name':'Grill Master','type':'Trait','cooldown':'Passive','description':'Chance to Burn on any CRIT.'},</v>
@@ -5214,7 +5213,7 @@
     <row r="323" spans="1:1">
       <c r="A323" t="str">
         <f>dark!M52</f>
-        <v>{'name':'Lethargy I','type':'Trait','cooldown':'Passive','description':'50% (75%) (100%) chance to inflict Slow status when dealing damage to a Diseased target.'},</v>
+        <v>{'name':'Lethargy','type':'Trait','cooldown':'Passive','description':'50% (75%) (100%) chance to inflict Slow status when dealing damage to a Diseased target.'},</v>
       </c>
     </row>
     <row r="324" spans="1:1">
@@ -5418,13 +5417,13 @@
     <row r="357" spans="1:1">
       <c r="A357" t="str">
         <f>fire!M33</f>
-        <v>{'name':'Pack Fury I','type':'Trait','cooldown':'Passive','description':'Increase CRIT chance for all Beast allies.'},</v>
+        <v>{'name':'Pack Fury','type':'Trait','cooldown':'Passive','description':'Increase CRIT chance for all Beast allies.'},</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="str">
         <f>nature!M44</f>
-        <v>{'name':'Pack Rampage I','type':'Trait','cooldown':'Passive','description':'Increase ATK (+CRIT) for all Beast allies.'},</v>
+        <v>{'name':'Pack Rampage','type':'Trait','cooldown':'Passive','description':'Increase ATK (+CRIT) for all Beast allies.'},</v>
       </c>
     </row>
     <row r="359" spans="1:1">
@@ -5490,7 +5489,7 @@
     <row r="369" spans="1:1">
       <c r="A369" t="str">
         <f>nature!M62</f>
-        <v>{'name':'Poison Skin I','type':'Trait','cooldown':'Passive','description':'Chance to Poison Melee attackers.'},</v>
+        <v>{'name':'Poison Skin','type':'Trait','cooldown':'Passive','description':'Chance to Poison Melee attackers.'},</v>
       </c>
     </row>
     <row r="370" spans="1:1">
@@ -5538,7 +5537,7 @@
     <row r="377" spans="1:1">
       <c r="A377" t="str">
         <f>light!M54</f>
-        <v>{'name':'PWN Undead I (II)','type':'Trait','cooldown':'Passive','description':'2.5x (3x) Boosted damage vs undead enemies.'},</v>
+        <v>{'name':'PWN Undead','type':'Trait','cooldown':'Passive','description':'2.5x (3x) Boosted damage vs undead enemies.'},</v>
       </c>
     </row>
     <row r="378" spans="1:1">
@@ -5640,7 +5639,7 @@
     <row r="394" spans="1:1">
       <c r="A394" t="str">
         <f>dark!M49</f>
-        <v>{'name':'Septic Claw I/II','type':'Special','cooldown':'','description':'Melee Disease attack for [67% ATK] base damage, with x% chance of inflicting Disease on the target. Septic Claw II gives a 30% chance that it could spread to the entire party upon hitting the target.'},</v>
+        <v>{'name':'Septic Claw','type':'Special','cooldown':'','description':'Melee Disease attack for [67% ATK] base damage, with x% chance of inflicting Disease on the target. Septic Claw II gives a 30% chance that it could spread to the entire party upon hitting the target.'},</v>
       </c>
     </row>
     <row r="395" spans="1:1">
@@ -5652,7 +5651,7 @@
     <row r="396" spans="1:1">
       <c r="A396" t="str">
         <f>light!M53</f>
-        <v>{'name':'Shifty I (II)','type':'Trait','cooldown':'Passive','description':'Innate ability to dodge attacks (19/25)%.'},</v>
+        <v>{'name':'Shifty','type':'Trait','cooldown':'Passive','description':'Innate ability to dodge attacks (19/25)%.'},</v>
       </c>
     </row>
     <row r="397" spans="1:1">
@@ -5808,7 +5807,7 @@
     <row r="422" spans="1:1">
       <c r="A422" t="str">
         <f>dark!M73</f>
-        <v>{'name':'Soul Eater I (II)','type':'Trait','cooldown':'Passive','description':'Heals 10% (20%) of maximum HP when dealing a killing blow.'},</v>
+        <v>{'name':'Soul Eater','type':'Trait','cooldown':'Passive','description':'Heals 10% (20%) of maximum HP when dealing a killing blow.'},</v>
       </c>
     </row>
     <row r="423" spans="1:1">
@@ -6084,7 +6083,7 @@
     <row r="468" spans="1:1">
       <c r="A468" t="str">
         <f>dark!M3</f>
-        <v>{'name':'Thunder Shout I','type':'Special','cooldown':'6 Turns','description':'Thunderous Ranged Spirit attack that hits all enemies for [60.4% ATK] base damage and Silences the targeted enemy. Thunder Shout II adds an additional 30% chance to silence the entire party.'},</v>
+        <v>{'name':'Thunder Shout','type':'Special','cooldown':'6 Turns','description':'Thunderous Ranged Spirit attack that hits all enemies for [60.4% ATK] base damage and Silences the targeted enemy. Thunder Shout II adds an additional 30% chance to silence the entire party.'},</v>
       </c>
     </row>
     <row r="469" spans="1:1">
@@ -6096,7 +6095,7 @@
     <row r="470" spans="1:1">
       <c r="A470" t="str">
         <f>nature!M17</f>
-        <v>{'name':'Tribal Heart I','type':'Trait','cooldown':'Passive','description':'Increase Health by 15% (25%) for all Goblin allies.'},</v>
+        <v>{'name':'Tribal Heart','type':'Trait','cooldown':'Passive','description':'Increase Health by 15% (25%) for all Goblin allies.'},</v>
       </c>
     </row>
     <row r="471" spans="1:1">
@@ -6126,7 +6125,7 @@
     <row r="475" spans="1:1">
       <c r="A475" t="str">
         <f>dark!M53</f>
-        <v>{'name':'Undead Heart I','type':'Trait','cooldown':'Passive','description':'Increases health of Undead allies by 15% (20%) (25%).'},</v>
+        <v>{'name':'Undead Heart','type':'Trait','cooldown':'Passive','description':'Increases health of Undead allies by 15% (20%) (25%).'},</v>
       </c>
     </row>
     <row r="476" spans="1:1">
@@ -6300,8 +6299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7405,7 +7404,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
-        <v>412</v>
+        <v>506</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>15</v>
@@ -7421,7 +7420,7 @@
       </c>
       <c r="H33" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>'name':'Pack Fury I',</v>
+        <v>'name':'Pack Fury',</v>
       </c>
       <c r="I33" s="1" t="str">
         <f t="shared" si="26"/>
@@ -7440,12 +7439,12 @@
       </c>
       <c r="M33" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>{'name':'Pack Fury I','type':'Trait','cooldown':'Passive','description':'Increase CRIT chance for all Beast allies.'},</v>
+        <v>{'name':'Pack Fury','type':'Trait','cooldown':'Passive','description':'Increase CRIT chance for all Beast allies.'},</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>15</v>
@@ -7454,14 +7453,14 @@
         <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H34" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>'name':'Grill Master II',</v>
+        <v>'name':'Grill Master',</v>
       </c>
       <c r="I34" s="1" t="str">
         <f t="shared" si="26"/>
@@ -7480,7 +7479,7 @@
       </c>
       <c r="M34" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>{'name':'Grill Master II','type':'Trait','cooldown':'Passive','description':'Chance to Burn on any CRIT.'},</v>
+        <v>{'name':'Grill Master','type':'Trait','cooldown':'Passive','description':'Chance to Burn on any CRIT.'},</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -7498,7 +7497,7 @@
     </row>
     <row r="36" spans="1:13" ht="29">
       <c r="A36" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -7553,7 +7552,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
@@ -7562,7 +7561,7 @@
         <v>57</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>0</v>
@@ -7599,7 +7598,7 @@
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>73</v>
@@ -7633,14 +7632,14 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>0</v>
@@ -7671,7 +7670,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>15</v>
@@ -7680,7 +7679,7 @@
         <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>0</v>
@@ -7751,7 +7750,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>15</v>
@@ -7760,7 +7759,7 @@
         <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>0</v>
@@ -7804,7 +7803,7 @@
     </row>
     <row r="45" spans="1:13" ht="29">
       <c r="A45" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -7819,7 +7818,7 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>3</v>
@@ -7859,7 +7858,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>7</v>
@@ -7868,7 +7867,7 @@
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>0</v>
@@ -7899,7 +7898,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>7</v>
@@ -7908,7 +7907,7 @@
         <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>0</v>
@@ -7939,16 +7938,16 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>0</v>
@@ -8019,7 +8018,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>15</v>
@@ -8028,7 +8027,7 @@
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>0</v>
@@ -8059,7 +8058,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>15</v>
@@ -8068,7 +8067,7 @@
         <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>0</v>
@@ -8336,7 +8335,7 @@
         <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>0</v>
@@ -8367,7 +8366,7 @@
     </row>
     <row r="62" spans="1:13" ht="29">
       <c r="A62" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -8375,11 +8374,11 @@
         <v>2</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>0</v>
@@ -8410,7 +8409,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>7</v>
@@ -8419,7 +8418,7 @@
         <v>70</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>0</v>
@@ -8450,16 +8449,16 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>0</v>
@@ -8490,7 +8489,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>7</v>
@@ -8499,7 +8498,7 @@
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>0</v>
@@ -8530,7 +8529,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>15</v>
@@ -8539,7 +8538,7 @@
         <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>0</v>
@@ -8570,7 +8569,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>15</v>
@@ -8579,7 +8578,7 @@
         <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>0</v>
@@ -8619,7 +8618,7 @@
         <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>0</v>
@@ -8650,7 +8649,7 @@
     </row>
     <row r="71" spans="1:13" ht="29">
       <c r="A71" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -8695,7 +8694,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>7</v>
@@ -8704,7 +8703,7 @@
         <v>54</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>0</v>
@@ -8735,16 +8734,16 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>0</v>
@@ -8781,7 +8780,7 @@
         <v>7</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>73</v>
@@ -8815,7 +8814,7 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>15</v>
@@ -8824,7 +8823,7 @@
         <v>16</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>0</v>
@@ -8855,7 +8854,7 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>15</v>
@@ -8864,7 +8863,7 @@
         <v>16</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>0</v>
@@ -8895,7 +8894,7 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>15</v>
@@ -8904,7 +8903,7 @@
         <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>0</v>
@@ -8935,7 +8934,7 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="2" t="s">
-        <v>413</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>15</v>
@@ -8944,14 +8943,14 @@
         <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H79" s="1" t="str">
         <f t="shared" si="69"/>
-        <v>'name':'Beast Leader I',</v>
+        <v>'name':'Beast Leader',</v>
       </c>
       <c r="I79" s="1" t="str">
         <f t="shared" si="70"/>
@@ -8970,7 +8969,7 @@
       </c>
       <c r="M79" s="1" t="str">
         <f t="shared" si="73"/>
-        <v>{'name':'Beast Leader I','type':'Trait','cooldown':'Increased ATK for all Beast allies. Higher tiers increases ATK boost.','description':'Increased ATK for all Beast allies. Higher tiers increases ATK boost.'},</v>
+        <v>{'name':'Beast Leader','type':'Trait','cooldown':'Increased ATK for all Beast allies. Higher tiers increases ATK boost.','description':'Increased ATK for all Beast allies. Higher tiers increases ATK boost.'},</v>
       </c>
     </row>
   </sheetData>
@@ -8988,8 +8987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9005,7 +9004,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="29">
       <c r="A1" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -9050,7 +9049,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -9059,7 +9058,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -9090,7 +9089,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -9099,7 +9098,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -9170,7 +9169,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
@@ -9179,7 +9178,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -9219,7 +9218,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>0</v>
@@ -9250,7 +9249,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
@@ -9259,7 +9258,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -9290,7 +9289,7 @@
     </row>
     <row r="10" spans="1:13" ht="29">
       <c r="A10" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -9335,7 +9334,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -9344,7 +9343,7 @@
         <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -9375,7 +9374,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -9384,7 +9383,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -9415,7 +9414,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -9424,7 +9423,7 @@
         <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -9455,7 +9454,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
@@ -9464,7 +9463,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -9495,7 +9494,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -9504,7 +9503,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -9535,7 +9534,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>408</v>
+        <v>510</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
@@ -9544,14 +9543,14 @@
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>'name':'Tribal Heart I',</v>
+        <v>'name':'Tribal Heart',</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9570,12 +9569,12 @@
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>{'name':'Tribal Heart I','type':'Trait','cooldown':'Passive','description':'Increase Health by 15% (25%) for all Goblin allies.'},</v>
+        <v>{'name':'Tribal Heart','type':'Trait','cooldown':'Passive','description':'Increase Health by 15% (25%) for all Goblin allies.'},</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="29">
       <c r="A19" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -9620,7 +9619,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -9629,7 +9628,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>0</v>
@@ -9660,7 +9659,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -9669,7 +9668,7 @@
         <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>0</v>
@@ -9700,14 +9699,14 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>0</v>
@@ -9747,7 +9746,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>0</v>
@@ -9778,7 +9777,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
@@ -9787,7 +9786,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>0</v>
@@ -9818,7 +9817,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>15</v>
@@ -9827,7 +9826,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>0</v>
@@ -9858,12 +9857,12 @@
     </row>
     <row r="28" spans="1:13" ht="29">
       <c r="A28" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>3</v>
@@ -9872,7 +9871,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>0</v>
@@ -9903,16 +9902,16 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>0</v>
@@ -9943,16 +9942,16 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>0</v>
@@ -9983,16 +9982,16 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>0</v>
@@ -10023,7 +10022,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>15</v>
@@ -10032,7 +10031,7 @@
         <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>0</v>
@@ -10063,7 +10062,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>15</v>
@@ -10072,7 +10071,7 @@
         <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>0</v>
@@ -10103,7 +10102,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>15</v>
@@ -10112,7 +10111,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>0</v>
@@ -10143,12 +10142,12 @@
     </row>
     <row r="37" spans="1:13" ht="29">
       <c r="A37" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>3</v>
@@ -10188,7 +10187,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -10197,7 +10196,7 @@
         <v>57</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>0</v>
@@ -10228,16 +10227,16 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>0</v>
@@ -10268,7 +10267,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
@@ -10277,7 +10276,7 @@
         <v>54</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>0</v>
@@ -10308,7 +10307,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="2" t="s">
-        <v>409</v>
+        <v>509</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>15</v>
@@ -10317,14 +10316,14 @@
         <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H42" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>'name':'Fully Rested I',</v>
+        <v>'name':'Fully Rested',</v>
       </c>
       <c r="I42" s="1" t="str">
         <f t="shared" si="41"/>
@@ -10343,12 +10342,12 @@
       </c>
       <c r="M42" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>{'name':'Fully Rested I','type':'Trait','cooldown':'Passive','description':'Damage dealt to enemies is increased by 25% (33%) when Julius' health is full.'},</v>
+        <v>{'name':'Fully Rested','type':'Trait','cooldown':'Passive','description':'Damage dealt to enemies is increased by 25% (33%) when Julius' health is full.'},</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>15</v>
@@ -10357,7 +10356,7 @@
         <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>0</v>
@@ -10388,7 +10387,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="2" t="s">
-        <v>410</v>
+        <v>508</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>15</v>
@@ -10397,14 +10396,14 @@
         <v>16</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H44" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>'name':'Pack Rampage I',</v>
+        <v>'name':'Pack Rampage',</v>
       </c>
       <c r="I44" s="1" t="str">
         <f t="shared" si="41"/>
@@ -10423,12 +10422,12 @@
       </c>
       <c r="M44" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>{'name':'Pack Rampage I','type':'Trait','cooldown':'Passive','description':'Increase ATK (+CRIT) for all Beast allies.'},</v>
+        <v>{'name':'Pack Rampage','type':'Trait','cooldown':'Passive','description':'Increase ATK (+CRIT) for all Beast allies.'},</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="29">
       <c r="A46" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -10442,7 +10441,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>0</v>
@@ -10473,7 +10472,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>7</v>
@@ -10482,7 +10481,7 @@
         <v>70</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>0</v>
@@ -10513,7 +10512,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
@@ -10522,7 +10521,7 @@
         <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>0</v>
@@ -10553,7 +10552,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>7</v>
@@ -10562,7 +10561,7 @@
         <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>0</v>
@@ -10593,7 +10592,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>15</v>
@@ -10602,7 +10601,7 @@
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>0</v>
@@ -10673,7 +10672,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>15</v>
@@ -10682,7 +10681,7 @@
         <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>0</v>
@@ -10713,7 +10712,7 @@
     </row>
     <row r="55" spans="1:13" ht="29">
       <c r="A55" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -10721,7 +10720,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
@@ -10756,7 +10755,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>7</v>
@@ -10765,7 +10764,7 @@
         <v>70</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>0</v>
@@ -10796,14 +10795,14 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>0</v>
@@ -10834,14 +10833,14 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>0</v>
@@ -10881,7 +10880,7 @@
         <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>0</v>
@@ -10912,7 +10911,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>15</v>
@@ -10921,7 +10920,7 @@
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>0</v>
@@ -10952,7 +10951,7 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="2" t="s">
-        <v>411</v>
+        <v>507</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>15</v>
@@ -10961,14 +10960,14 @@
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H62" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>'name':'Poison Skin I',</v>
+        <v>'name':'Poison Skin',</v>
       </c>
       <c r="I62" s="1" t="str">
         <f t="shared" si="61"/>
@@ -10987,12 +10986,12 @@
       </c>
       <c r="M62" s="1" t="str">
         <f t="shared" si="64"/>
-        <v>{'name':'Poison Skin I','type':'Trait','cooldown':'Passive','description':'Chance to Poison Melee attackers.'},</v>
+        <v>{'name':'Poison Skin','type':'Trait','cooldown':'Passive','description':'Chance to Poison Melee attackers.'},</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="29">
       <c r="A64" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -11000,7 +10999,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
@@ -11035,7 +11034,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>7</v>
@@ -11044,7 +11043,7 @@
         <v>70</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>0</v>
@@ -11075,14 +11074,14 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>0</v>
@@ -11128,32 +11127,32 @@
         <v>0</v>
       </c>
       <c r="H68" s="1" t="str">
-        <f t="shared" ref="H66:H70" si="70">"'name':" &amp; "'" &amp;A68&amp; "',"</f>
+        <f t="shared" ref="H68:H70" si="70">"'name':" &amp; "'" &amp;A68&amp; "',"</f>
         <v>'name':'Magical',</v>
       </c>
       <c r="I68" s="1" t="str">
-        <f t="shared" ref="I66:I70" si="71">"'type':" &amp; "'" &amp;B68&amp; "',"</f>
+        <f t="shared" ref="I68:I70" si="71">"'type':" &amp; "'" &amp;B68&amp; "',"</f>
         <v>'type':'Trait',</v>
       </c>
       <c r="J68" s="1" t="str">
-        <f t="shared" ref="J66:J70" si="72">"'cooldown':" &amp; "'" &amp;C68&amp; "',"</f>
+        <f t="shared" ref="J68:J70" si="72">"'cooldown':" &amp; "'" &amp;C68&amp; "',"</f>
         <v>'cooldown':'Passive',</v>
       </c>
       <c r="K68" s="1" t="str">
-        <f t="shared" ref="K66:K70" si="73">"'description':" &amp; "'" &amp;D68&amp; "'"</f>
+        <f t="shared" ref="K68:K70" si="73">"'description':" &amp; "'" &amp;D68&amp; "'"</f>
         <v>'description':'Takes 25% less damage from non-Physical attacks.'</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M68" s="1" t="str">
-        <f t="shared" ref="M66:M70" si="74">G68&amp;H68&amp;I68&amp;J68&amp;K68&amp;L68</f>
+        <f t="shared" ref="M68:M70" si="74">G68&amp;H68&amp;I68&amp;J68&amp;K68&amp;L68</f>
         <v>{'name':'Magical','type':'Trait','cooldown':'Passive','description':'Takes 25% less damage from non-Physical attacks.'},</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>15</v>
@@ -11162,7 +11161,7 @@
         <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>0</v>
@@ -11193,7 +11192,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>15</v>
@@ -11202,7 +11201,7 @@
         <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>0</v>
@@ -11233,7 +11232,7 @@
     </row>
     <row r="72" spans="1:13" ht="29">
       <c r="A72" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -11278,7 +11277,7 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>7</v>
@@ -11287,7 +11286,7 @@
         <v>37</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>0</v>
@@ -11318,16 +11317,16 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>0</v>
@@ -11358,7 +11357,7 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>7</v>
@@ -11367,7 +11366,7 @@
         <v>57</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>0</v>
@@ -11398,7 +11397,7 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>15</v>
@@ -11407,7 +11406,7 @@
         <v>16</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>0</v>
@@ -11438,7 +11437,7 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>15</v>
@@ -11447,7 +11446,7 @@
         <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>0</v>
@@ -11518,7 +11517,7 @@
     </row>
     <row r="81" spans="1:13" ht="29">
       <c r="A81" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -11526,11 +11525,11 @@
         <v>51</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>0</v>
@@ -11561,7 +11560,7 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>7</v>
@@ -11570,7 +11569,7 @@
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>0</v>
@@ -11601,16 +11600,16 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>0</v>
@@ -11681,7 +11680,7 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>15</v>
@@ -11690,7 +11689,7 @@
         <v>16</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>0</v>
@@ -11721,7 +11720,7 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>15</v>
@@ -11730,7 +11729,7 @@
         <v>16</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>0</v>
@@ -11801,7 +11800,7 @@
     </row>
     <row r="90" spans="1:13" ht="29">
       <c r="A90" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -11815,7 +11814,7 @@
         <v>4</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>0</v>
@@ -11846,7 +11845,7 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>7</v>
@@ -11855,7 +11854,7 @@
         <v>57</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>0</v>
@@ -11926,7 +11925,7 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>7</v>
@@ -11935,7 +11934,7 @@
         <v>40</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>0</v>
@@ -11966,7 +11965,7 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>15</v>
@@ -11975,7 +11974,7 @@
         <v>16</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>0</v>
@@ -12006,7 +12005,7 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>15</v>
@@ -12015,7 +12014,7 @@
         <v>16</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>0</v>
@@ -12046,7 +12045,7 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>15</v>
@@ -12055,7 +12054,7 @@
         <v>16</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>0</v>
@@ -12099,7 +12098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -12117,7 +12116,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="29">
       <c r="A1" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -12131,7 +12130,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
@@ -12162,7 +12161,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -12171,7 +12170,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -12202,7 +12201,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -12211,7 +12210,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -12242,7 +12241,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -12251,7 +12250,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>0</v>
@@ -12291,7 +12290,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -12322,7 +12321,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
@@ -12331,7 +12330,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>0</v>
@@ -12362,7 +12361,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
@@ -12371,7 +12370,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -12402,7 +12401,7 @@
     </row>
     <row r="10" spans="1:13" ht="29">
       <c r="A10" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -12447,7 +12446,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -12456,7 +12455,7 @@
         <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -12487,7 +12486,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -12496,7 +12495,7 @@
         <v>54</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -12527,14 +12526,14 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -12565,7 +12564,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
@@ -12574,7 +12573,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -12645,12 +12644,12 @@
     </row>
     <row r="18" spans="1:13" ht="29">
       <c r="A18" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
@@ -12659,7 +12658,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>0</v>
@@ -12690,7 +12689,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -12699,7 +12698,7 @@
         <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>0</v>
@@ -12730,7 +12729,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -12739,7 +12738,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>0</v>
@@ -12770,7 +12769,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -12779,7 +12778,7 @@
         <v>54</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>0</v>
@@ -12819,7 +12818,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>0</v>
@@ -12890,7 +12889,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
@@ -12899,7 +12898,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>0</v>
@@ -12930,7 +12929,7 @@
     </row>
     <row r="27" spans="1:13" ht="29">
       <c r="A27" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -12938,7 +12937,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
@@ -12973,16 +12972,16 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>0</v>
@@ -13013,7 +13012,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
@@ -13022,7 +13021,7 @@
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>0</v>
@@ -13053,14 +13052,14 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>0</v>
@@ -13091,7 +13090,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>15</v>
@@ -13100,7 +13099,7 @@
         <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>0</v>
@@ -13131,7 +13130,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>15</v>
@@ -13140,7 +13139,7 @@
         <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>0</v>
@@ -13171,7 +13170,7 @@
     </row>
     <row r="35" spans="1:13" ht="29">
       <c r="A35" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -13216,7 +13215,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
@@ -13225,7 +13224,7 @@
         <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>0</v>
@@ -13256,16 +13255,16 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>0</v>
@@ -13296,7 +13295,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -13305,7 +13304,7 @@
         <v>11</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>0</v>
@@ -13345,7 +13344,7 @@
         <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>0</v>
@@ -13376,7 +13375,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>15</v>
@@ -13385,7 +13384,7 @@
         <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>0</v>
@@ -13416,7 +13415,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>15</v>
@@ -13425,7 +13424,7 @@
         <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>0</v>
@@ -13456,7 +13455,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>15</v>
@@ -13465,7 +13464,7 @@
         <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>0</v>
@@ -13496,12 +13495,12 @@
     </row>
     <row r="45" spans="1:13" ht="29">
       <c r="A45" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>3</v>
@@ -13510,7 +13509,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>0</v>
@@ -13541,7 +13540,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>7</v>
@@ -13550,7 +13549,7 @@
         <v>54</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>0</v>
@@ -13581,7 +13580,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>7</v>
@@ -13590,7 +13589,7 @@
         <v>57</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>0</v>
@@ -13621,16 +13620,16 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>0</v>
@@ -13701,7 +13700,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>15</v>
@@ -13710,7 +13709,7 @@
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>0</v>
@@ -13741,12 +13740,12 @@
     </row>
     <row r="53" spans="1:13" ht="29">
       <c r="A53" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>3</v>
@@ -13755,7 +13754,7 @@
         <v>4</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>0</v>
@@ -13786,7 +13785,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>7</v>
@@ -13795,7 +13794,7 @@
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>0</v>
@@ -13826,7 +13825,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>7</v>
@@ -13835,7 +13834,7 @@
         <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>0</v>
@@ -13866,14 +13865,14 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>0</v>
@@ -13944,7 +13943,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>15</v>
@@ -13953,7 +13952,7 @@
         <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>0</v>
@@ -13984,7 +13983,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>15</v>
@@ -13993,7 +13992,7 @@
         <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>0</v>
@@ -14024,7 +14023,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>15</v>
@@ -14033,7 +14032,7 @@
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>0</v>
@@ -14064,7 +14063,7 @@
     </row>
     <row r="63" spans="1:13" ht="29">
       <c r="A63" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -14078,7 +14077,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>0</v>
@@ -14109,7 +14108,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>7</v>
@@ -14118,7 +14117,7 @@
         <v>54</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>0</v>
@@ -14149,7 +14148,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>7</v>
@@ -14158,7 +14157,7 @@
         <v>57</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>0</v>
@@ -14189,16 +14188,16 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>0</v>
@@ -14229,7 +14228,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>15</v>
@@ -14238,7 +14237,7 @@
         <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>0</v>
@@ -14269,7 +14268,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>15</v>
@@ -14278,7 +14277,7 @@
         <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>0</v>
@@ -14318,7 +14317,7 @@
         <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>0</v>
@@ -14349,12 +14348,12 @@
     </row>
     <row r="72" spans="1:13" ht="29">
       <c r="A72" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>3</v>
@@ -14394,7 +14393,7 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>7</v>
@@ -14403,7 +14402,7 @@
         <v>57</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>0</v>
@@ -14434,7 +14433,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>7</v>
@@ -14443,7 +14442,7 @@
         <v>57</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>0</v>
@@ -14474,14 +14473,14 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>0</v>
@@ -14512,7 +14511,7 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>15</v>
@@ -14521,7 +14520,7 @@
         <v>16</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>0</v>
@@ -14552,7 +14551,7 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>15</v>
@@ -14561,7 +14560,7 @@
         <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>0</v>
@@ -14592,7 +14591,7 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>15</v>
@@ -14601,7 +14600,7 @@
         <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>0</v>
@@ -14645,8 +14644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14662,7 +14661,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="29">
       <c r="A1" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -14707,7 +14706,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>407</v>
+        <v>511</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -14716,14 +14715,14 @@
         <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="str">
         <f t="shared" ref="H3:H8" si="5">"'name':" &amp; "'" &amp;A3&amp; "',"</f>
-        <v>'name':'Thunder Shout I',</v>
+        <v>'name':'Thunder Shout',</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" ref="I3:I8" si="6">"'type':" &amp; "'" &amp;B3&amp; "',"</f>
@@ -14742,12 +14741,12 @@
       </c>
       <c r="M3" s="1" t="str">
         <f t="shared" ref="M3:M8" si="9">G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3</f>
-        <v>{'name':'Thunder Shout I','type':'Special','cooldown':'6 Turns','description':'Thunderous Ranged Spirit attack that hits all enemies for [60.4% ATK] base damage and Silences the targeted enemy. Thunder Shout II adds an additional 30% chance to silence the entire party.'},</v>
+        <v>{'name':'Thunder Shout','type':'Special','cooldown':'6 Turns','description':'Thunderous Ranged Spirit attack that hits all enemies for [60.4% ATK] base damage and Silences the targeted enemy. Thunder Shout II adds an additional 30% chance to silence the entire party.'},</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -14756,7 +14755,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -14787,14 +14786,14 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>0</v>
@@ -14834,7 +14833,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -14865,7 +14864,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>406</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
@@ -14874,14 +14873,14 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>'name':'Frenzy I',</v>
+        <v>'name':'Frenzy',</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="6"/>
@@ -14900,12 +14899,12 @@
       </c>
       <c r="M7" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>{'name':'Frenzy I','type':'Trait','cooldown':'Passive','description':'Increase CRIT chance by 9% (14%) (19%).'},</v>
+        <v>{'name':'Frenzy','type':'Trait','cooldown':'Passive','description':'Increase CRIT chance by 9% (14%) (19%).'},</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
@@ -14914,7 +14913,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -14945,7 +14944,7 @@
     </row>
     <row r="10" spans="1:13" ht="29">
       <c r="A10" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -14990,7 +14989,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -14999,7 +14998,7 @@
         <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -15030,7 +15029,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -15039,7 +15038,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -15070,14 +15069,14 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -15148,7 +15147,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -15157,7 +15156,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -15188,7 +15187,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
@@ -15197,7 +15196,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>0</v>
@@ -15228,7 +15227,7 @@
     </row>
     <row r="19" spans="1:13" ht="29">
       <c r="A19" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -15273,7 +15272,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -15282,7 +15281,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>0</v>
@@ -15313,7 +15312,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -15322,7 +15321,7 @@
         <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>0</v>
@@ -15353,7 +15352,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -15362,7 +15361,7 @@
         <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>0</v>
@@ -15393,7 +15392,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
@@ -15402,7 +15401,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>0</v>
@@ -15442,7 +15441,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>0</v>
@@ -15473,7 +15472,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
-        <v>406</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>15</v>
@@ -15482,14 +15481,14 @@
         <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H26" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>'name':'Frenzy I',</v>
+        <v>'name':'Frenzy',</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="26"/>
@@ -15508,12 +15507,12 @@
       </c>
       <c r="M26" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>{'name':'Frenzy I','type':'Trait','cooldown':'Passive','description':'Increase CRIT chance by 9% (14%).'},</v>
+        <v>{'name':'Frenzy','type':'Trait','cooldown':'Passive','description':'Increase CRIT chance by 9% (14%).'},</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
@@ -15522,7 +15521,7 @@
         <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>0</v>
@@ -15553,7 +15552,7 @@
     </row>
     <row r="29" spans="1:13" ht="29">
       <c r="A29" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -15598,7 +15597,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
@@ -15607,7 +15606,7 @@
         <v>57</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>0</v>
@@ -15638,16 +15637,16 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>0</v>
@@ -15678,7 +15677,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
@@ -15687,7 +15686,7 @@
         <v>40</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>0</v>
@@ -15718,7 +15717,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>15</v>
@@ -15727,7 +15726,7 @@
         <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>0</v>
@@ -15758,7 +15757,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>15</v>
@@ -15767,7 +15766,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>0</v>
@@ -15798,7 +15797,7 @@
     </row>
     <row r="37" spans="1:13" ht="29">
       <c r="A37" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -15843,7 +15842,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -15852,7 +15851,7 @@
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>0</v>
@@ -15883,7 +15882,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
@@ -15892,7 +15891,7 @@
         <v>70</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>0</v>
@@ -15923,7 +15922,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
@@ -15932,7 +15931,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>0</v>
@@ -16003,7 +16002,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>15</v>
@@ -16012,7 +16011,7 @@
         <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>0</v>
@@ -16043,7 +16042,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>15</v>
@@ -16052,7 +16051,7 @@
         <v>16</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>0</v>
@@ -16083,7 +16082,7 @@
     </row>
     <row r="46" spans="1:13" ht="29">
       <c r="A46" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -16091,11 +16090,11 @@
         <v>2</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>0</v>
@@ -16126,16 +16125,16 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>0</v>
@@ -16166,21 +16165,21 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="2" t="s">
-        <v>396</v>
+        <v>515</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H49" s="1" t="str">
         <f t="shared" si="50"/>
-        <v>'name':'Septic Claw I/II',</v>
+        <v>'name':'Septic Claw',</v>
       </c>
       <c r="I49" s="1" t="str">
         <f t="shared" si="51"/>
@@ -16199,19 +16198,19 @@
       </c>
       <c r="M49" s="1" t="str">
         <f t="shared" si="54"/>
-        <v>{'name':'Septic Claw I/II','type':'Special','cooldown':'','description':'Melee Disease attack for [67% ATK] base damage, with x% chance of inflicting Disease on the target. Septic Claw II gives a 30% chance that it could spread to the entire party upon hitting the target.'},</v>
+        <v>{'name':'Septic Claw','type':'Special','cooldown':'','description':'Melee Disease attack for [67% ATK] base damage, with x% chance of inflicting Disease on the target. Septic Claw II gives a 30% chance that it could spread to the entire party upon hitting the target.'},</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>0</v>
@@ -16242,7 +16241,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>15</v>
@@ -16251,38 +16250,38 @@
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H51" s="1" t="str">
-        <f t="shared" ref="H48:H54" si="55">"'name':" &amp; "'" &amp;A51&amp; "',"</f>
+        <f t="shared" ref="H51:H54" si="55">"'name':" &amp; "'" &amp;A51&amp; "',"</f>
         <v>'name':'Welcomed Fever',</v>
       </c>
       <c r="I51" s="1" t="str">
-        <f t="shared" ref="I48:I54" si="56">"'type':" &amp; "'" &amp;B51&amp; "',"</f>
+        <f t="shared" ref="I51:I54" si="56">"'type':" &amp; "'" &amp;B51&amp; "',"</f>
         <v>'type':'Trait',</v>
       </c>
       <c r="J51" s="1" t="str">
-        <f t="shared" ref="J48:J54" si="57">"'cooldown':" &amp; "'" &amp;C51&amp; "',"</f>
+        <f t="shared" ref="J51:J54" si="57">"'cooldown':" &amp; "'" &amp;C51&amp; "',"</f>
         <v>'cooldown':'Passive',</v>
       </c>
       <c r="K51" s="1" t="str">
-        <f t="shared" ref="K48:K54" si="58">"'description':" &amp; "'" &amp;D51&amp; "'"</f>
+        <f t="shared" ref="K51:K54" si="58">"'description':" &amp; "'" &amp;D51&amp; "'"</f>
         <v>'description':'+ATK and +CRIT and additional healing when Diseased.'</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M51" s="1" t="str">
-        <f t="shared" ref="M48:M54" si="59">G51&amp;H51&amp;I51&amp;J51&amp;K51&amp;L51</f>
+        <f t="shared" ref="M51:M54" si="59">G51&amp;H51&amp;I51&amp;J51&amp;K51&amp;L51</f>
         <v>{'name':'Welcomed Fever','type':'Trait','cooldown':'Passive','description':'+ATK and +CRIT and additional healing when Diseased.'},</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="2" t="s">
-        <v>404</v>
+        <v>512</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>15</v>
@@ -16291,14 +16290,14 @@
         <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>'name':'Lethargy I',</v>
+        <v>'name':'Lethargy',</v>
       </c>
       <c r="I52" s="1" t="str">
         <f t="shared" si="56"/>
@@ -16317,12 +16316,12 @@
       </c>
       <c r="M52" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>{'name':'Lethargy I','type':'Trait','cooldown':'Passive','description':'50% (75%) (100%) chance to inflict Slow status when dealing damage to a Diseased target.'},</v>
+        <v>{'name':'Lethargy','type':'Trait','cooldown':'Passive','description':'50% (75%) (100%) chance to inflict Slow status when dealing damage to a Diseased target.'},</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="2" t="s">
-        <v>405</v>
+        <v>513</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>15</v>
@@ -16331,14 +16330,14 @@
         <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H53" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>'name':'Undead Heart I',</v>
+        <v>'name':'Undead Heart',</v>
       </c>
       <c r="I53" s="1" t="str">
         <f t="shared" si="56"/>
@@ -16357,12 +16356,12 @@
       </c>
       <c r="M53" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>{'name':'Undead Heart I','type':'Trait','cooldown':'Passive','description':'Increases health of Undead allies by 15% (20%) (25%).'},</v>
+        <v>{'name':'Undead Heart','type':'Trait','cooldown':'Passive','description':'Increases health of Undead allies by 15% (20%) (25%).'},</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>15</v>
@@ -16371,7 +16370,7 @@
         <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>0</v>
@@ -16402,7 +16401,7 @@
     </row>
     <row r="56" spans="1:13" ht="29">
       <c r="A56" s="4" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -16416,7 +16415,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>0</v>
@@ -16447,7 +16446,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="2" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>7</v>
@@ -16456,7 +16455,7 @@
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>0</v>
@@ -16487,7 +16486,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>7</v>
@@ -16496,7 +16495,7 @@
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>0</v>
@@ -16527,7 +16526,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="2" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>7</v>
@@ -16536,7 +16535,7 @@
         <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>0</v>
@@ -16567,7 +16566,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="2" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>15</v>
@@ -16576,7 +16575,7 @@
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>0</v>
@@ -16616,7 +16615,7 @@
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>0</v>
@@ -16647,7 +16646,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>15</v>
@@ -16656,7 +16655,7 @@
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>0</v>
@@ -16687,21 +16686,21 @@
     </row>
     <row r="65" spans="1:13" ht="29">
       <c r="A65" s="4" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="2" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>0</v>
@@ -16732,7 +16731,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="2" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>7</v>
@@ -16741,7 +16740,7 @@
         <v>70</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>0</v>
@@ -16772,7 +16771,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="2" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>7</v>
@@ -16781,7 +16780,7 @@
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>0</v>
@@ -16812,14 +16811,14 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="2" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>0</v>
@@ -16853,11 +16852,11 @@
         <v>34</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>0</v>
@@ -16888,7 +16887,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="2" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>7</v>
@@ -16897,7 +16896,7 @@
         <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>0</v>
@@ -16928,7 +16927,7 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="2" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>15</v>
@@ -16937,7 +16936,7 @@
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>0</v>
@@ -16968,7 +16967,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="2" t="s">
-        <v>436</v>
+        <v>514</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>15</v>
@@ -16977,14 +16976,14 @@
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H73" s="1" t="str">
         <f t="shared" si="75"/>
-        <v>'name':'Soul Eater I (II)',</v>
+        <v>'name':'Soul Eater',</v>
       </c>
       <c r="I73" s="1" t="str">
         <f t="shared" si="76"/>
@@ -17003,12 +17002,12 @@
       </c>
       <c r="M73" s="1" t="str">
         <f t="shared" si="79"/>
-        <v>{'name':'Soul Eater I (II)','type':'Trait','cooldown':'Passive','description':'Heals 10% (20%) of maximum HP when dealing a killing blow.'},</v>
+        <v>{'name':'Soul Eater','type':'Trait','cooldown':'Passive','description':'Heals 10% (20%) of maximum HP when dealing a killing blow.'},</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="2" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>15</v>
@@ -17017,7 +17016,7 @@
         <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>0</v>
@@ -17048,7 +17047,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>15</v>
@@ -17057,7 +17056,7 @@
         <v>16</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>0</v>
@@ -17088,7 +17087,7 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>15</v>
@@ -17097,7 +17096,7 @@
         <v>16</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>0</v>
@@ -17128,12 +17127,12 @@
     </row>
     <row r="78" spans="1:13" ht="29">
       <c r="A78" s="4" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>3</v>
@@ -17173,7 +17172,7 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="2" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>7</v>
@@ -17182,7 +17181,7 @@
         <v>54</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>0</v>
@@ -17213,7 +17212,7 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="2" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>7</v>
@@ -17222,7 +17221,7 @@
         <v>57</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>0</v>
@@ -17253,7 +17252,7 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>7</v>
@@ -17262,7 +17261,7 @@
         <v>54</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>0</v>
@@ -17293,7 +17292,7 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>15</v>
@@ -17302,7 +17301,7 @@
         <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>0</v>
@@ -17333,7 +17332,7 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>15</v>
@@ -17342,7 +17341,7 @@
         <v>16</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>0</v>
@@ -17386,8 +17385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17403,7 +17402,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="29">
       <c r="A1" s="4" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -17417,7 +17416,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
@@ -17448,7 +17447,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -17457,7 +17456,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -17488,16 +17487,16 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -17528,7 +17527,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -17537,7 +17536,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>0</v>
@@ -17577,7 +17576,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -17648,7 +17647,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
@@ -17657,7 +17656,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -17688,7 +17687,7 @@
     </row>
     <row r="10" spans="1:13" ht="29">
       <c r="A10" s="4" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -17702,7 +17701,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -17733,16 +17732,16 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -17773,7 +17772,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -17782,7 +17781,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -17813,7 +17812,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -17822,7 +17821,7 @@
         <v>70</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -17853,7 +17852,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
@@ -17862,7 +17861,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -17942,7 +17941,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>0</v>
@@ -17973,7 +17972,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>15</v>
@@ -17982,7 +17981,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>0</v>
@@ -18013,7 +18012,7 @@
     </row>
     <row r="20" spans="1:13" ht="29">
       <c r="A20" s="4" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -18058,7 +18057,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -18067,7 +18066,7 @@
         <v>54</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>0</v>
@@ -18098,7 +18097,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -18107,7 +18106,7 @@
         <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>0</v>
@@ -18138,14 +18137,14 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>0</v>
@@ -18176,7 +18175,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
@@ -18185,7 +18184,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>0</v>
@@ -18216,7 +18215,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>15</v>
@@ -18225,7 +18224,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>0</v>
@@ -18256,7 +18255,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
@@ -18265,7 +18264,7 @@
         <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>0</v>
@@ -18336,7 +18335,7 @@
     </row>
     <row r="30" spans="1:13" ht="29">
       <c r="A30" s="4" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -18381,7 +18380,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
@@ -18390,7 +18389,7 @@
         <v>70</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>0</v>
@@ -18421,14 +18420,14 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>0</v>
@@ -18459,7 +18458,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
@@ -18468,7 +18467,7 @@
         <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>0</v>
@@ -18499,7 +18498,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>15</v>
@@ -18508,7 +18507,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>0</v>
@@ -18539,7 +18538,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>15</v>
@@ -18548,7 +18547,7 @@
         <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>0</v>
@@ -18619,7 +18618,7 @@
     </row>
     <row r="39" spans="1:13" ht="29">
       <c r="A39" s="4" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -18633,7 +18632,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>0</v>
@@ -18664,7 +18663,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
@@ -18673,7 +18672,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>0</v>
@@ -18710,10 +18709,10 @@
         <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>0</v>
@@ -18744,16 +18743,16 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>0</v>
@@ -18833,7 +18832,7 @@
         <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>0</v>
@@ -18864,7 +18863,7 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>15</v>
@@ -18873,7 +18872,7 @@
         <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>0</v>
@@ -18904,12 +18903,12 @@
     </row>
     <row r="48" spans="1:13" ht="29">
       <c r="A48" s="4" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>3</v>
@@ -18918,7 +18917,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>0</v>
@@ -18949,7 +18948,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="2" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>7</v>
@@ -18958,7 +18957,7 @@
         <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>0</v>
@@ -18989,16 +18988,16 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="2" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>0</v>
@@ -19029,7 +19028,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="2" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>7</v>
@@ -19038,7 +19037,7 @@
         <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>0</v>
@@ -19069,7 +19068,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="2" t="s">
-        <v>504</v>
+        <v>122</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>15</v>
@@ -19078,14 +19077,14 @@
         <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H53" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>'name':'Shifty I (II)',</v>
+        <v>'name':'Shifty',</v>
       </c>
       <c r="I53" s="1" t="str">
         <f t="shared" si="56"/>
@@ -19104,12 +19103,12 @@
       </c>
       <c r="M53" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>{'name':'Shifty I (II)','type':'Trait','cooldown':'Passive','description':'Innate ability to dodge attacks (19/25)%.'},</v>
+        <v>{'name':'Shifty','type':'Trait','cooldown':'Passive','description':'Innate ability to dodge attacks (19/25)%.'},</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="2" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>15</v>
@@ -19118,14 +19117,14 @@
         <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H54" s="1" t="str">
         <f t="shared" si="55"/>
-        <v>'name':'PWN Undead I (II)',</v>
+        <v>'name':'PWN Undead',</v>
       </c>
       <c r="I54" s="1" t="str">
         <f t="shared" si="56"/>
@@ -19144,12 +19143,12 @@
       </c>
       <c r="M54" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>{'name':'PWN Undead I (II)','type':'Trait','cooldown':'Passive','description':'2.5x (3x) Boosted damage vs undead enemies.'},</v>
+        <v>{'name':'PWN Undead','type':'Trait','cooldown':'Passive','description':'2.5x (3x) Boosted damage vs undead enemies.'},</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="2" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>15</v>
@@ -19158,7 +19157,7 @@
         <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>0</v>
@@ -19189,12 +19188,12 @@
     </row>
     <row r="57" spans="1:13" ht="29">
       <c r="A57" s="4" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="2" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>3</v>
@@ -19203,7 +19202,7 @@
         <v>4</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>0</v>
@@ -19234,7 +19233,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="2" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>7</v>
@@ -19243,7 +19242,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>0</v>
@@ -19274,7 +19273,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="2" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>7</v>
@@ -19283,7 +19282,7 @@
         <v>11</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>0</v>
@@ -19354,7 +19353,7 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="2" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>7</v>
@@ -19363,7 +19362,7 @@
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>0</v>
@@ -19394,7 +19393,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>15</v>
@@ -19403,7 +19402,7 @@
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>0</v>

--- a/abilities/abilities.xlsx
+++ b/abilities/abilities.xlsx
@@ -2544,8 +2544,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="191">
+  <cellStyleXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2747,7 +2753,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="191">
+  <cellStyles count="197">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
@@ -2843,6 +2849,9 @@
     <cellStyle name="Följd hyperlänk" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
@@ -2938,6 +2947,9 @@
     <cellStyle name="Hyperlänk" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4559,7 +4571,7 @@
     <row r="214" spans="1:1">
       <c r="A214" t="str">
         <f>fire!M73</f>
-        <v>{'name':'Bat Out of Hell','type':'Special','cooldown':'Three Ranged Fire projectiles on a single target for a total [127.5% ATK] base damage and chance to Burn.','description':'Three Ranged Fire projectiles on a single target for a total [127.5% ATK] base damage and chance to Burn.'},</v>
+        <v>{'name':'Bat Out of Hell','type':'Special','cooldown':'6 Turns','description':'Three Ranged Fire projectiles on a single target for a total [127.5% ATK] base damage and chance to Burn.'},</v>
       </c>
     </row>
     <row r="215" spans="1:1">
@@ -4571,7 +4583,7 @@
     <row r="216" spans="1:1">
       <c r="A216" t="str">
         <f>fire!M79</f>
-        <v>{'name':'Beast Leader','type':'Trait','cooldown':'Increased ATK for all Beast allies. Higher tiers increases ATK boost.','description':'Increased ATK for all Beast allies. Higher tiers increases ATK boost.'},</v>
+        <v>{'name':'Beast Leader','type':'Trait','cooldown':'Passive','description':'Increased ATK for all Beast allies. Higher tiers increases ATK boost.'},</v>
       </c>
     </row>
     <row r="217" spans="1:1">
@@ -4595,10 +4607,10 @@
     <row r="220" spans="1:1">
       <c r="A220" t="str">
         <f>fire!M72</f>
-        <v>{'name':'Bite','type':'Basic Attack','cooldown':'A basic Melee Physical attack doing [49.5% ATK] base damage.','description':'A basic Melee Physical attack doing [49.5% ATK] base damage.'},</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
+        <v>{'name':'Bite','type':'Basic Attack','cooldown':'None','description':'A basic Melee Physical attack doing [49.5% ATK] base damage.'},</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" hidden="1">
       <c r="A221" t="str">
         <f>fire!M28</f>
         <v>{'name':'Bite','type':'Basic Attack','cooldown':'None','description':'A basic Melee Physical attack doing [49.5% ATK] base damage.'},</v>
@@ -4871,10 +4883,10 @@
     <row r="266" spans="1:1">
       <c r="A266" t="str">
         <f>fire!M76</f>
-        <v>{'name':'Fast','type':'Trait','cooldown':'Attacks first.','description':'Attacks first.'},</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
+        <v>{'name':'Fast','type':'Trait','cooldown':'Passive','description':'Attacks first.'},</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" hidden="1">
       <c r="A267" t="str">
         <f>nature!M87</f>
         <v>{'name':'Fast','type':'Trait','cooldown':'Passive','description':'Attacks first.'},</v>
@@ -4916,10 +4928,10 @@
         <v>{'name':'Fiery Fangs','type':'Special','cooldown':'3 Turns','description':'Melee Fire Bite for [82.5% ATK] base damage with chance to Burn.'},</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" hidden="1">
       <c r="A274" t="str">
         <f>fire!M75</f>
-        <v>{'name':'Fiery Fangs','type':'Special','cooldown':'Melee Fire Bite for [82.5% ATK] base damage with chance to Burn.','description':'Melee Fire Bite for [82.5% ATK] base damage with chance to Burn.'},</v>
+        <v>{'name':'Fiery Fangs','type':'Special','cooldown':'3 Turns','description':'Melee Fire Bite for [82.5% ATK] base damage with chance to Burn.'},</v>
       </c>
     </row>
     <row r="275" spans="1:1">
@@ -4961,7 +4973,7 @@
     <row r="281" spans="1:1">
       <c r="A281" t="str">
         <f>fire!M78</f>
-        <v>{'name':'Flying','type':'Trait','cooldown':'Takes 25% less damage from Melee attacks.','description':'Takes 25% less damage from Melee attacks.'},</v>
+        <v>{'name':'Flying','type':'Trait','cooldown':'Passive','description':'Takes 25% less damage from Melee attacks.'},</v>
       </c>
     </row>
     <row r="282" spans="1:1">
@@ -5267,7 +5279,7 @@
     <row r="332" spans="1:1">
       <c r="A332" t="str">
         <f>fire!M74</f>
-        <v>{'name':'Lock Jaw','type':'Special','cooldown':'Attack an enemy for [67.5% ATK] base damage.','description':'Attack an enemy for [67.5% ATK] base damage.'},</v>
+        <v>{'name':'Lock Jaw','type':'Special','cooldown':'2 Turns','description':'Attack an enemy for [67.5% ATK] base damage.'},</v>
       </c>
     </row>
     <row r="333" spans="1:1">
@@ -5657,7 +5669,7 @@
     <row r="397" spans="1:1">
       <c r="A397" t="str">
         <f>fire!M77</f>
-        <v>{'name':'Shifty','type':'Trait','cooldown':'Innate ability to dodge attacks. (+19% Dodge Chance)','description':'Innate ability to dodge attacks. (+19% Dodge Chance)'},</v>
+        <v>{'name':'Shifty','type':'Trait','cooldown':'Passive','description':'Innate ability to dodge attacks. (+19% Dodge Chance)'},</v>
       </c>
     </row>
     <row r="398" spans="1:1">
@@ -6299,8 +6311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8677,19 +8689,19 @@
         <v>'type':'Basic Attack',</v>
       </c>
       <c r="J72" s="1" t="str">
-        <f>"'cooldown':" &amp; "'" &amp;D72&amp; "',"</f>
-        <v>'cooldown':'A basic Melee Physical attack doing [49.5% ATK] base damage.',</v>
+        <f t="shared" ref="J72" si="67">"'cooldown':" &amp; "'" &amp;C72&amp; "',"</f>
+        <v>'cooldown':'None',</v>
       </c>
       <c r="K72" s="1" t="str">
-        <f t="shared" ref="K72" si="67">"'description':" &amp; "'" &amp;D72&amp; "'"</f>
+        <f t="shared" ref="K72" si="68">"'description':" &amp; "'" &amp;D72&amp; "'"</f>
         <v>'description':'A basic Melee Physical attack doing [49.5% ATK] base damage.'</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M72" s="1" t="str">
-        <f t="shared" ref="M72" si="68">G72&amp;H72&amp;I72&amp;J72&amp;K72&amp;L72</f>
-        <v>{'name':'Bite','type':'Basic Attack','cooldown':'A basic Melee Physical attack doing [49.5% ATK] base damage.','description':'A basic Melee Physical attack doing [49.5% ATK] base damage.'},</v>
+        <f t="shared" ref="M72" si="69">G72&amp;H72&amp;I72&amp;J72&amp;K72&amp;L72</f>
+        <v>{'name':'Bite','type':'Basic Attack','cooldown':'None','description':'A basic Melee Physical attack doing [49.5% ATK] base damage.'},</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -8709,27 +8721,27 @@
         <v>0</v>
       </c>
       <c r="H73" s="1" t="str">
-        <f t="shared" ref="H73:H79" si="69">"'name':" &amp; "'" &amp;A73&amp; "',"</f>
+        <f t="shared" ref="H73:H79" si="70">"'name':" &amp; "'" &amp;A73&amp; "',"</f>
         <v>'name':'Bat Out of Hell',</v>
       </c>
       <c r="I73" s="1" t="str">
-        <f t="shared" ref="I73:I79" si="70">"'type':" &amp; "'" &amp;B73&amp; "',"</f>
+        <f t="shared" ref="I73:I79" si="71">"'type':" &amp; "'" &amp;B73&amp; "',"</f>
         <v>'type':'Special',</v>
       </c>
       <c r="J73" s="1" t="str">
-        <f t="shared" ref="J73:J79" si="71">"'cooldown':" &amp; "'" &amp;D73&amp; "',"</f>
-        <v>'cooldown':'Three Ranged Fire projectiles on a single target for a total [127.5% ATK] base damage and chance to Burn.',</v>
+        <f t="shared" ref="J73:J79" si="72">"'cooldown':" &amp; "'" &amp;C73&amp; "',"</f>
+        <v>'cooldown':'6 Turns',</v>
       </c>
       <c r="K73" s="1" t="str">
-        <f t="shared" ref="K73:K79" si="72">"'description':" &amp; "'" &amp;D73&amp; "'"</f>
+        <f t="shared" ref="K73:K79" si="73">"'description':" &amp; "'" &amp;D73&amp; "'"</f>
         <v>'description':'Three Ranged Fire projectiles on a single target for a total [127.5% ATK] base damage and chance to Burn.'</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M73" s="1" t="str">
-        <f t="shared" ref="M73:M79" si="73">G73&amp;H73&amp;I73&amp;J73&amp;K73&amp;L73</f>
-        <v>{'name':'Bat Out of Hell','type':'Special','cooldown':'Three Ranged Fire projectiles on a single target for a total [127.5% ATK] base damage and chance to Burn.','description':'Three Ranged Fire projectiles on a single target for a total [127.5% ATK] base damage and chance to Burn.'},</v>
+        <f t="shared" ref="M73:M79" si="74">G73&amp;H73&amp;I73&amp;J73&amp;K73&amp;L73</f>
+        <v>{'name':'Bat Out of Hell','type':'Special','cooldown':'6 Turns','description':'Three Ranged Fire projectiles on a single target for a total [127.5% ATK] base damage and chance to Burn.'},</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -8749,27 +8761,27 @@
         <v>0</v>
       </c>
       <c r="H74" s="1" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>'name':'Lock Jaw',</v>
       </c>
       <c r="I74" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>'type':'Special',</v>
       </c>
       <c r="J74" s="1" t="str">
-        <f t="shared" si="71"/>
-        <v>'cooldown':'Attack an enemy for [67.5% ATK] base damage.',</v>
+        <f t="shared" si="72"/>
+        <v>'cooldown':'2 Turns',</v>
       </c>
       <c r="K74" s="1" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>'description':'Attack an enemy for [67.5% ATK] base damage.'</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M74" s="1" t="str">
-        <f t="shared" si="73"/>
-        <v>{'name':'Lock Jaw','type':'Special','cooldown':'Attack an enemy for [67.5% ATK] base damage.','description':'Attack an enemy for [67.5% ATK] base damage.'},</v>
+        <f t="shared" si="74"/>
+        <v>{'name':'Lock Jaw','type':'Special','cooldown':'2 Turns','description':'Attack an enemy for [67.5% ATK] base damage.'},</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -8789,27 +8801,27 @@
         <v>0</v>
       </c>
       <c r="H75" s="1" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>'name':'Fiery Fangs',</v>
       </c>
       <c r="I75" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>'type':'Special',</v>
       </c>
       <c r="J75" s="1" t="str">
-        <f t="shared" si="71"/>
-        <v>'cooldown':'Melee Fire Bite for [82.5% ATK] base damage with chance to Burn.',</v>
+        <f t="shared" si="72"/>
+        <v>'cooldown':'3 Turns',</v>
       </c>
       <c r="K75" s="1" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>'description':'Melee Fire Bite for [82.5% ATK] base damage with chance to Burn.'</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M75" s="1" t="str">
-        <f t="shared" si="73"/>
-        <v>{'name':'Fiery Fangs','type':'Special','cooldown':'Melee Fire Bite for [82.5% ATK] base damage with chance to Burn.','description':'Melee Fire Bite for [82.5% ATK] base damage with chance to Burn.'},</v>
+        <f t="shared" si="74"/>
+        <v>{'name':'Fiery Fangs','type':'Special','cooldown':'3 Turns','description':'Melee Fire Bite for [82.5% ATK] base damage with chance to Burn.'},</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -8829,27 +8841,27 @@
         <v>0</v>
       </c>
       <c r="H76" s="1" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>'name':'Fast',</v>
       </c>
       <c r="I76" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>'type':'Trait',</v>
       </c>
       <c r="J76" s="1" t="str">
-        <f t="shared" si="71"/>
-        <v>'cooldown':'Attacks first.',</v>
+        <f t="shared" si="72"/>
+        <v>'cooldown':'Passive',</v>
       </c>
       <c r="K76" s="1" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>'description':'Attacks first.'</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M76" s="1" t="str">
-        <f t="shared" si="73"/>
-        <v>{'name':'Fast','type':'Trait','cooldown':'Attacks first.','description':'Attacks first.'},</v>
+        <f t="shared" si="74"/>
+        <v>{'name':'Fast','type':'Trait','cooldown':'Passive','description':'Attacks first.'},</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -8869,27 +8881,27 @@
         <v>0</v>
       </c>
       <c r="H77" s="1" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>'name':'Shifty',</v>
       </c>
       <c r="I77" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>'type':'Trait',</v>
       </c>
       <c r="J77" s="1" t="str">
-        <f t="shared" si="71"/>
-        <v>'cooldown':'Innate ability to dodge attacks. (+19% Dodge Chance)',</v>
+        <f t="shared" si="72"/>
+        <v>'cooldown':'Passive',</v>
       </c>
       <c r="K77" s="1" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>'description':'Innate ability to dodge attacks. (+19% Dodge Chance)'</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M77" s="1" t="str">
-        <f t="shared" si="73"/>
-        <v>{'name':'Shifty','type':'Trait','cooldown':'Innate ability to dodge attacks. (+19% Dodge Chance)','description':'Innate ability to dodge attacks. (+19% Dodge Chance)'},</v>
+        <f t="shared" si="74"/>
+        <v>{'name':'Shifty','type':'Trait','cooldown':'Passive','description':'Innate ability to dodge attacks. (+19% Dodge Chance)'},</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -8909,27 +8921,27 @@
         <v>0</v>
       </c>
       <c r="H78" s="1" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>'name':'Flying',</v>
       </c>
       <c r="I78" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>'type':'Trait',</v>
       </c>
       <c r="J78" s="1" t="str">
-        <f t="shared" si="71"/>
-        <v>'cooldown':'Takes 25% less damage from Melee attacks.',</v>
+        <f t="shared" si="72"/>
+        <v>'cooldown':'Passive',</v>
       </c>
       <c r="K78" s="1" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>'description':'Takes 25% less damage from Melee attacks.'</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M78" s="1" t="str">
-        <f t="shared" si="73"/>
-        <v>{'name':'Flying','type':'Trait','cooldown':'Takes 25% less damage from Melee attacks.','description':'Takes 25% less damage from Melee attacks.'},</v>
+        <f t="shared" si="74"/>
+        <v>{'name':'Flying','type':'Trait','cooldown':'Passive','description':'Takes 25% less damage from Melee attacks.'},</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -8949,27 +8961,27 @@
         <v>0</v>
       </c>
       <c r="H79" s="1" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>'name':'Beast Leader',</v>
       </c>
       <c r="I79" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>'type':'Trait',</v>
       </c>
       <c r="J79" s="1" t="str">
-        <f t="shared" si="71"/>
-        <v>'cooldown':'Increased ATK for all Beast allies. Higher tiers increases ATK boost.',</v>
+        <f t="shared" si="72"/>
+        <v>'cooldown':'Passive',</v>
       </c>
       <c r="K79" s="1" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>'description':'Increased ATK for all Beast allies. Higher tiers increases ATK boost.'</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M79" s="1" t="str">
-        <f t="shared" si="73"/>
-        <v>{'name':'Beast Leader','type':'Trait','cooldown':'Increased ATK for all Beast allies. Higher tiers increases ATK boost.','description':'Increased ATK for all Beast allies. Higher tiers increases ATK boost.'},</v>
+        <f t="shared" si="74"/>
+        <v>{'name':'Beast Leader','type':'Trait','cooldown':'Passive','description':'Increased ATK for all Beast allies. Higher tiers increases ATK boost.'},</v>
       </c>
     </row>
   </sheetData>
